--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhuva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhuva\Documents\GitHub\BSE662A_Patch_Foraging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A797096-566E-4438-99AD-787C76B9363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F43B330-F760-4700-9375-B77C2DDB0C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="2952" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4040,6 +4040,9 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
       <c r="B57" s="1">
         <v>0</v>
       </c>
@@ -4099,6 +4102,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
       <c r="B58" s="1">
         <v>1</v>
       </c>
@@ -4158,6 +4164,9 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
       <c r="B59" s="1">
         <v>2</v>
       </c>
@@ -4217,6 +4226,9 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
       <c r="B60" s="1">
         <v>3</v>
       </c>
@@ -4276,6 +4288,9 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
       <c r="B61" s="1">
         <v>4</v>
       </c>
@@ -4335,6 +4350,9 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
       <c r="B62" s="1">
         <v>0</v>
       </c>
@@ -4394,6 +4412,9 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
@@ -4453,6 +4474,9 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
       <c r="B64" s="1">
         <v>2</v>
       </c>
@@ -4511,7 +4535,10 @@
         <v>59.988470216071299</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
       <c r="B65" s="1">
         <v>3</v>
       </c>
@@ -4570,7 +4597,10 @@
         <v>59.988470216071299</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
       <c r="B66" s="1">
         <v>4</v>
       </c>
@@ -4629,7 +4659,10 @@
         <v>59.988470216071299</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
@@ -4688,7 +4721,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
@@ -4747,7 +4783,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
       <c r="B69" s="1">
         <v>2</v>
       </c>
@@ -4806,7 +4845,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
       <c r="B70" s="1">
         <v>3</v>
       </c>
@@ -4865,7 +4907,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
       <c r="B71" s="1">
         <v>4</v>
       </c>
@@ -4924,7 +4969,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="B72" s="1">
         <v>5</v>
       </c>
@@ -4983,7 +5031,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
@@ -5042,7 +5093,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="B74" s="1">
         <v>7</v>
       </c>
@@ -5101,7 +5155,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
       <c r="B75" s="1">
         <v>8</v>
       </c>
@@ -5160,7 +5217,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
       <c r="B76" s="1">
         <v>9</v>
       </c>
@@ -5219,7 +5279,10 @@
         <v>59.998260049432901</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
       <c r="B77" s="1">
         <v>0</v>
       </c>
@@ -5278,7 +5341,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
@@ -5337,7 +5403,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
       <c r="B79" s="1">
         <v>2</v>
       </c>
@@ -5396,7 +5465,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
       <c r="B80" s="1">
         <v>3</v>
       </c>
@@ -5455,7 +5527,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
       <c r="B81" s="1">
         <v>4</v>
       </c>
@@ -5514,7 +5589,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
       <c r="B82" s="1">
         <v>5</v>
       </c>
@@ -5573,7 +5651,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
       <c r="B83" s="1">
         <v>6</v>
       </c>
@@ -5632,7 +5713,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
       <c r="B84" s="1">
         <v>7</v>
       </c>
@@ -5691,7 +5775,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
       <c r="B85" s="1">
         <v>8</v>
       </c>
@@ -5750,7 +5837,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
       <c r="B86" s="1">
         <v>9</v>
       </c>
@@ -5809,7 +5899,10 @@
         <v>59.957609968053198</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
       <c r="B87" s="1">
         <v>0</v>
       </c>
@@ -5868,7 +5961,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
@@ -5927,7 +6023,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
       <c r="B89" s="1">
         <v>2</v>
       </c>
@@ -5986,7 +6085,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
       <c r="B90" s="1">
         <v>3</v>
       </c>
@@ -6045,7 +6147,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="B91" s="1">
         <v>4</v>
       </c>
@@ -6104,7 +6209,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="B92" s="1">
         <v>5</v>
       </c>
@@ -6163,7 +6271,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="B93" s="1">
         <v>6</v>
       </c>
@@ -6222,7 +6333,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="B94" s="1">
         <v>7</v>
       </c>
@@ -6281,7 +6395,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
       <c r="B95" s="1">
         <v>8</v>
       </c>
@@ -6340,7 +6457,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
       <c r="B96" s="1">
         <v>9</v>
       </c>
@@ -6399,7 +6519,10 @@
         <v>59.997648091747799</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
@@ -6458,7 +6581,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
       <c r="B98" s="1">
         <v>1</v>
       </c>
@@ -6517,7 +6643,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
@@ -6576,7 +6705,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
       <c r="B100" s="1">
         <v>3</v>
       </c>
@@ -6635,7 +6767,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
       <c r="B101" s="1">
         <v>4</v>
       </c>
@@ -6694,7 +6829,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
       <c r="B102" s="1">
         <v>5</v>
       </c>
@@ -6753,7 +6891,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
       <c r="B103" s="1">
         <v>6</v>
       </c>
@@ -6812,7 +6953,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
       <c r="B104" s="1">
         <v>7</v>
       </c>
@@ -6871,7 +7015,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
       <c r="B105" s="1">
         <v>8</v>
       </c>
@@ -6930,7 +7077,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
       <c r="B106" s="1">
         <v>9</v>
       </c>
@@ -6989,7 +7139,10 @@
         <v>59.9914932060898</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
@@ -7048,7 +7201,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
       <c r="B108" s="1">
         <v>1</v>
       </c>
@@ -7107,7 +7263,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
       <c r="B109" s="1">
         <v>2</v>
       </c>
@@ -7166,7 +7325,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
       <c r="B110" s="1">
         <v>3</v>
       </c>
@@ -7225,7 +7387,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
       <c r="B111" s="1">
         <v>4</v>
       </c>
@@ -7284,7 +7449,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
       <c r="B112" s="1">
         <v>5</v>
       </c>
@@ -7343,7 +7511,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
       <c r="B113" s="1">
         <v>6</v>
       </c>
@@ -7402,7 +7573,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
       <c r="B114" s="1">
         <v>7</v>
       </c>
@@ -7461,7 +7635,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
       <c r="B115" s="1">
         <v>8</v>
       </c>
@@ -7520,7 +7697,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
       <c r="B116" s="1">
         <v>9</v>
       </c>
@@ -7579,7 +7759,10 @@
         <v>59.993940609510602</v>
       </c>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
       <c r="B117" s="1">
         <v>0</v>
       </c>
@@ -7638,7 +7821,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
       <c r="B118" s="1">
         <v>1</v>
       </c>
@@ -7697,7 +7883,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -7756,7 +7945,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
       <c r="B120" s="1">
         <v>3</v>
       </c>
@@ -7815,7 +8007,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
       <c r="B121" s="1">
         <v>4</v>
       </c>
@@ -7874,7 +8069,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
       <c r="B122" s="1">
         <v>5</v>
       </c>
@@ -7933,7 +8131,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
       <c r="B123" s="1">
         <v>6</v>
       </c>
@@ -7992,7 +8193,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
       <c r="B124" s="1">
         <v>7</v>
       </c>
@@ -8051,7 +8255,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
       <c r="B125" s="1">
         <v>8</v>
       </c>
@@ -8110,7 +8317,10 @@
         <v>59.965160240140897</v>
       </c>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
       <c r="B126" s="1">
         <v>9</v>
       </c>
